--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.5840696393563</v>
+        <v>144.6655677622015</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.9918056533677</v>
+        <v>197.9378120065731</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.7266227980721</v>
+        <v>179.0469050361858</v>
       </c>
       <c r="AD2" t="n">
-        <v>101584.0696393563</v>
+        <v>144665.5677622015</v>
       </c>
       <c r="AE2" t="n">
-        <v>138991.8056533677</v>
+        <v>197937.8120065731</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.406693151105955e-06</v>
+        <v>4.911308286112059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>125726.6227980721</v>
+        <v>179046.9050361858</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.66960967200853</v>
+        <v>120.0324886533498</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.2169394296312</v>
+        <v>164.2337464351067</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.0299192455053</v>
+        <v>148.5595081788963</v>
       </c>
       <c r="AD3" t="n">
-        <v>85669.60967200853</v>
+        <v>120032.4886533499</v>
       </c>
       <c r="AE3" t="n">
-        <v>117216.9394296312</v>
+        <v>164233.7464351067</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.070198868908886e-06</v>
+        <v>5.867860868099188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.4609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>106029.9192455053</v>
+        <v>148559.5081788963</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.47706056973361</v>
+        <v>109.3772534647348</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.2169970194605</v>
+        <v>149.6547835742507</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.3162871285148</v>
+        <v>135.3719410717729</v>
       </c>
       <c r="AD4" t="n">
-        <v>83477.06056973361</v>
+        <v>109377.2534647348</v>
       </c>
       <c r="AE4" t="n">
-        <v>114216.9970194605</v>
+        <v>149654.7835742507</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.270212254395881e-06</v>
+        <v>6.156213048323198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.122395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>103316.2871285148</v>
+        <v>135371.9410717729</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.71175072362657</v>
+        <v>118.3814449436382</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.9063545587012</v>
+        <v>161.9747155925726</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.8444147552391</v>
+        <v>146.5160760694033</v>
       </c>
       <c r="AD2" t="n">
-        <v>84711.75072362657</v>
+        <v>118381.4449436382</v>
       </c>
       <c r="AE2" t="n">
-        <v>115906.3545587012</v>
+        <v>161974.7155925726</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01956525520366e-06</v>
+        <v>5.884492321782289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.825520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104844.4147552391</v>
+        <v>146516.0760694033</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.84465339903247</v>
+        <v>105.4290067644725</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.30102434292962</v>
+        <v>144.2526182546034</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.91931254601897</v>
+        <v>130.4853508282443</v>
       </c>
       <c r="AD3" t="n">
-        <v>71844.65339903247</v>
+        <v>105429.0067644725</v>
       </c>
       <c r="AE3" t="n">
-        <v>98301.02434292962</v>
+        <v>144252.6182546034</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.53431957206375e-06</v>
+        <v>6.638073277147077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88919.31254601898</v>
+        <v>130485.3508282444</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.58876122453884</v>
+        <v>105.1731145899789</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.95090138062163</v>
+        <v>143.9024952922954</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.60260482783288</v>
+        <v>130.1686431100583</v>
       </c>
       <c r="AD4" t="n">
-        <v>71588.76122453884</v>
+        <v>105173.1145899789</v>
       </c>
       <c r="AE4" t="n">
-        <v>97950.90138062162</v>
+        <v>143902.4952922954</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.590339368250794e-06</v>
+        <v>6.720084151358838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>88602.60482783288</v>
+        <v>130168.6431100583</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.37304527934997</v>
+        <v>95.35685936173732</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.07804048949859</v>
+        <v>130.4714618264054</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.67199592350822</v>
+        <v>118.0194486275747</v>
       </c>
       <c r="AD2" t="n">
-        <v>64373.04527934996</v>
+        <v>95356.85936173733</v>
       </c>
       <c r="AE2" t="n">
-        <v>88078.04048949858</v>
+        <v>130471.4618264054</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.215807146921157e-06</v>
+        <v>8.069497458567649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79671.99592350822</v>
+        <v>118019.4486275747</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.0288583606649</v>
+        <v>99.02937955307119</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.71184111355588</v>
+        <v>135.4963659723419</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.95899171607783</v>
+        <v>122.5647829743219</v>
       </c>
       <c r="AD2" t="n">
-        <v>67028.8583606649</v>
+        <v>99029.37955307119</v>
       </c>
       <c r="AE2" t="n">
-        <v>91711.84111355587</v>
+        <v>135496.3659723419</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.014052788029069e-06</v>
+        <v>7.577707735985236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82958.99171607783</v>
+        <v>122564.7829743219</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.01473472816438</v>
+        <v>99.01525592057067</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.69251653647797</v>
+        <v>135.477041395264</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.94151144951401</v>
+        <v>122.5473027077581</v>
       </c>
       <c r="AD3" t="n">
-        <v>67014.73472816439</v>
+        <v>99015.25592057066</v>
       </c>
       <c r="AE3" t="n">
-        <v>91692.51653647797</v>
+        <v>135477.041395264</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.018666765178359e-06</v>
+        <v>7.584680811821475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>82941.51144951402</v>
+        <v>122547.3027077581</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.2773085587207</v>
+        <v>92.42721425271328</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.21056105095629</v>
+        <v>126.4629921414203</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.07818469804681</v>
+        <v>114.3935416634008</v>
       </c>
       <c r="AD2" t="n">
-        <v>62277.3085587207</v>
+        <v>92427.21425271328</v>
       </c>
       <c r="AE2" t="n">
-        <v>85210.56105095628</v>
+        <v>126462.9921414203</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.321462804135256e-06</v>
+        <v>8.410508052990263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77078.18469804681</v>
+        <v>114393.5416634008</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.23262511781502</v>
+        <v>129.0441043815553</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.301479053043</v>
+        <v>176.5638366388584</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8656887715296</v>
+        <v>159.7128318789962</v>
       </c>
       <c r="AD2" t="n">
-        <v>95232.62511781501</v>
+        <v>129044.1043815553</v>
       </c>
       <c r="AE2" t="n">
-        <v>130301.479053043</v>
+        <v>176563.8366388584</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.84942833500138e-06</v>
+        <v>5.612028789734317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>117865.6887715296</v>
+        <v>159712.8318789962</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.28139450597061</v>
+        <v>106.7040319718423</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2127898450712</v>
+        <v>145.9971639934681</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.598797270417</v>
+        <v>132.0633995702777</v>
       </c>
       <c r="AD3" t="n">
-        <v>81281.39450597062</v>
+        <v>106704.0319718423</v>
       </c>
       <c r="AE3" t="n">
-        <v>111212.7898450712</v>
+        <v>145997.1639934681</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.44994059103507e-06</v>
+        <v>6.487507374127334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100598.797270417</v>
+        <v>132063.3995702777</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.46560922911979</v>
+        <v>106.276998984309</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.15064350429246</v>
+        <v>145.4128786205596</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.68784524706962</v>
+        <v>131.5348775733097</v>
       </c>
       <c r="AD4" t="n">
-        <v>72465.60922911979</v>
+        <v>106276.998984309</v>
       </c>
       <c r="AE4" t="n">
-        <v>99150.64350429246</v>
+        <v>145412.8786205596</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.496148567380999e-06</v>
+        <v>6.55487334928027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>89687.84524706962</v>
+        <v>131534.8775733097</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.08978697539555</v>
+        <v>90.74589404499871</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.58574163089685</v>
+        <v>124.1625356586138</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.60843576298896</v>
+        <v>112.3126375186016</v>
       </c>
       <c r="AD2" t="n">
-        <v>61089.78697539555</v>
+        <v>90745.89404499871</v>
       </c>
       <c r="AE2" t="n">
-        <v>83585.74163089685</v>
+        <v>124162.5356586138</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.33211004185473e-06</v>
+        <v>8.5432927873188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.9921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>75608.43576298896</v>
+        <v>112312.6375186016</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.57971619373716</v>
+        <v>104.2794441682066</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.8844785055257</v>
+        <v>142.6797359952706</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.49269669731153</v>
+        <v>129.0625822441878</v>
       </c>
       <c r="AD2" t="n">
-        <v>79579.71619373716</v>
+        <v>104279.4441682066</v>
       </c>
       <c r="AE2" t="n">
-        <v>108884.4785055258</v>
+        <v>142679.7359952707</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.517856807149094e-06</v>
+        <v>6.708308945700411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98492.69669731153</v>
+        <v>129062.5822441878</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.45163882530302</v>
+        <v>102.2991492586226</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.02679623080255</v>
+        <v>139.9702091355337</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.95757216950429</v>
+        <v>126.6116488250984</v>
       </c>
       <c r="AD3" t="n">
-        <v>69451.63882530302</v>
+        <v>102299.1492586226</v>
       </c>
       <c r="AE3" t="n">
-        <v>95026.79623080255</v>
+        <v>139970.2091355337</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.777412529508297e-06</v>
+        <v>7.093708494321499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.783854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>85957.57216950429</v>
+        <v>126611.6488250984</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.12267787018079</v>
+        <v>116.5567023567672</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.7321149756713</v>
+        <v>159.4780222832555</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.8776815464484</v>
+        <v>144.2576636653955</v>
       </c>
       <c r="AD2" t="n">
-        <v>83122.67787018079</v>
+        <v>116556.7023567672</v>
       </c>
       <c r="AE2" t="n">
-        <v>113732.1149756713</v>
+        <v>159478.0222832555</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.160878802579849e-06</v>
+        <v>6.118332941875132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102877.6815464484</v>
+        <v>144257.6636653955</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.05814664894456</v>
+        <v>104.4068302809593</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.22489110923095</v>
+        <v>142.8540312946175</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.9458839577817</v>
+        <v>129.22024304479</v>
       </c>
       <c r="AD3" t="n">
-        <v>71058.14664894456</v>
+        <v>104406.8302809593</v>
       </c>
       <c r="AE3" t="n">
-        <v>97224.89110923096</v>
+        <v>142854.0312946175</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.623921818765293e-06</v>
+        <v>6.79921106254427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.861979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>87945.8839577817</v>
+        <v>129220.24304479</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.99656489097411</v>
+        <v>133.409886578862</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.45146750398</v>
+        <v>182.5372924459276</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.524169552765</v>
+        <v>165.1161894476385</v>
       </c>
       <c r="AD2" t="n">
-        <v>98996.56489097411</v>
+        <v>133409.886578862</v>
       </c>
       <c r="AE2" t="n">
-        <v>135451.46750398</v>
+        <v>182537.2924459276</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573142153490227e-06</v>
+        <v>5.169523830077014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>122524.169552765</v>
+        <v>165116.1894476385</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.14100889339485</v>
+        <v>118.2983975261189</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.1254404072261</v>
+        <v>161.8610864521293</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.1380299543606</v>
+        <v>146.4132915346443</v>
       </c>
       <c r="AD3" t="n">
-        <v>84141.00889339486</v>
+        <v>118298.3975261189</v>
       </c>
       <c r="AE3" t="n">
-        <v>115125.4404072261</v>
+        <v>161861.0864521293</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.206871560828616e-06</v>
+        <v>6.086386113279581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104138.0299543606</v>
+        <v>146413.2915346443</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.71384843876696</v>
+        <v>108.4599235723052</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.1727365113296</v>
+        <v>148.3996523456904</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.3716893776507</v>
+        <v>134.2365978060783</v>
       </c>
       <c r="AD4" t="n">
-        <v>82713.84843876696</v>
+        <v>108459.9235723052</v>
       </c>
       <c r="AE4" t="n">
-        <v>113172.7365113296</v>
+        <v>148399.6523456904</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.349004820517914e-06</v>
+        <v>6.292020605680796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.044270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>102371.6893776507</v>
+        <v>134236.5978060783</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.89619482139632</v>
+        <v>101.19409089962</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.26681324019778</v>
+        <v>138.458219537013</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.27012088887976</v>
+        <v>125.2439613917693</v>
       </c>
       <c r="AD2" t="n">
-        <v>68896.19482139632</v>
+        <v>101194.09089962</v>
       </c>
       <c r="AE2" t="n">
-        <v>94266.81324019778</v>
+        <v>138458.219537013</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.76439259942367e-06</v>
+        <v>7.154615061775848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>85270.12088887976</v>
+        <v>125243.9613917693</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.03133226693512</v>
+        <v>100.3292283451588</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.08347013814152</v>
+        <v>137.2748764349568</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.1997143916509</v>
+        <v>124.1735548945404</v>
       </c>
       <c r="AD3" t="n">
-        <v>68031.33226693512</v>
+        <v>100329.2283451588</v>
       </c>
       <c r="AE3" t="n">
-        <v>93083.47013814152</v>
+        <v>137274.8764349568</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.902810399355638e-06</v>
+        <v>7.362474942242233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>84199.71439165089</v>
+        <v>124173.5548945404</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.11444950818753</v>
+        <v>96.46187662193724</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.09246246383978</v>
+        <v>131.9833951917311</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.5896028883688</v>
+        <v>119.387085194526</v>
       </c>
       <c r="AD2" t="n">
-        <v>65114.44950818753</v>
+        <v>96461.87662193723</v>
       </c>
       <c r="AE2" t="n">
-        <v>89092.46246383978</v>
+        <v>131983.3951917311</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196085639766463e-06</v>
+        <v>7.969479456902839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>80589.6028883688</v>
+        <v>119387.085194526</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.29268032839254</v>
+        <v>93.88037983418613</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.59983750126158</v>
+        <v>128.4512773991313</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.33487055379715</v>
+        <v>116.1920677666923</v>
       </c>
       <c r="AD2" t="n">
-        <v>63292.68032839253</v>
+        <v>93880.37983418613</v>
       </c>
       <c r="AE2" t="n">
-        <v>86599.83750126157</v>
+        <v>128451.2773991313</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.300370182039795e-06</v>
+        <v>8.281723857697785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>78334.87055379714</v>
+        <v>116192.0677666923</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.49508020818307</v>
+        <v>96.49151264424928</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.34974641358616</v>
+        <v>132.0239445049074</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.53601622957913</v>
+        <v>119.4237645381641</v>
       </c>
       <c r="AD2" t="n">
-        <v>67495.08020818306</v>
+        <v>96491.51264424928</v>
       </c>
       <c r="AE2" t="n">
-        <v>92349.74641358617</v>
+        <v>132023.9445049074</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.155870021896548e-06</v>
+        <v>8.40239832002802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83536.01622957914</v>
+        <v>119423.7645381641</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.17852668824135</v>
+        <v>114.1967170445335</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0720415586462</v>
+        <v>156.2489862638551</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4714818029069</v>
+        <v>141.3368023117051</v>
       </c>
       <c r="AD2" t="n">
-        <v>81178.52668824134</v>
+        <v>114196.7170445335</v>
       </c>
       <c r="AE2" t="n">
-        <v>111072.0415586462</v>
+        <v>156248.9862638551</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356729221293433e-06</v>
+        <v>6.43654812311292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100471.4818029069</v>
+        <v>141336.8023117051</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.30421699862499</v>
+        <v>103.4076587009377</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.19333130063551</v>
+        <v>141.4869206584936</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.012774769515</v>
+        <v>127.9836075290254</v>
       </c>
       <c r="AD3" t="n">
-        <v>70304.21699862499</v>
+        <v>103407.6587009377</v>
       </c>
       <c r="AE3" t="n">
-        <v>96193.3313006355</v>
+        <v>141486.9206584936</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.692829960587066e-06</v>
+        <v>6.933096903813834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>87012.774769515</v>
+        <v>127983.6075290255</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.96131444021661</v>
+        <v>130.9919944570221</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.6667480483421</v>
+        <v>179.229025774956</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.0052198135939</v>
+        <v>162.1236591045619</v>
       </c>
       <c r="AD2" t="n">
-        <v>96961.31444021661</v>
+        <v>130991.9944570221</v>
       </c>
       <c r="AE2" t="n">
-        <v>132666.7480483421</v>
+        <v>179229.025774956</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.723000233402098e-06</v>
+        <v>5.406425584125371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.294270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120005.2198135939</v>
+        <v>162123.6591045619</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.61185200955524</v>
+        <v>108.1988900402259</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.0331804971173</v>
+        <v>148.0424947511131</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.2454523935667</v>
+        <v>133.9135268310534</v>
       </c>
       <c r="AD3" t="n">
-        <v>82611.85200955524</v>
+        <v>108198.8900402259</v>
       </c>
       <c r="AE3" t="n">
-        <v>113033.1804971173</v>
+        <v>148042.4947511131</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345465394039603e-06</v>
+        <v>6.310350203711569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>102245.4523935667</v>
+        <v>133913.5268310534</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.08680466101711</v>
+        <v>107.1173951692716</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.0005904994222</v>
+        <v>146.5627457564878</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.45667449389258</v>
+        <v>132.575003003634</v>
       </c>
       <c r="AD4" t="n">
-        <v>73086.80466101711</v>
+        <v>107117.3951692716</v>
       </c>
       <c r="AE4" t="n">
-        <v>100000.5904994223</v>
+        <v>146562.7457564878</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.444963026622639e-06</v>
+        <v>6.454837582877074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>90456.67449389258</v>
+        <v>132575.003003634</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.33221325061091</v>
+        <v>101.7096177856344</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3363693583672</v>
+        <v>139.1635861658986</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.7604070898085</v>
+        <v>125.8820088195826</v>
       </c>
       <c r="AD2" t="n">
-        <v>73332.2132506109</v>
+        <v>101709.6177856344</v>
       </c>
       <c r="AE2" t="n">
-        <v>100336.3693583672</v>
+        <v>139163.5861658986</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.740458898042227e-06</v>
+        <v>7.902062551037559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>90760.40708980849</v>
+        <v>125882.0088195826</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.00658576694346</v>
+        <v>97.69140881563492</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.31312265134301</v>
+        <v>133.6656953822795</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.69376498078442</v>
+        <v>120.9088290160121</v>
       </c>
       <c r="AD2" t="n">
-        <v>66006.58576694346</v>
+        <v>97691.40881563492</v>
       </c>
       <c r="AE2" t="n">
-        <v>90313.122651343</v>
+        <v>133665.6953822795</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.122281878681935e-06</v>
+        <v>7.795634709491836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>81693.76498078443</v>
+        <v>120908.8290160121</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.23609756556341</v>
+        <v>102.7348505332077</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.046080222189</v>
+        <v>140.5663548412044</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.82975256592766</v>
+        <v>127.1508992213158</v>
       </c>
       <c r="AD2" t="n">
-        <v>78236.09756556341</v>
+        <v>102734.8505332077</v>
       </c>
       <c r="AE2" t="n">
-        <v>107046.080222189</v>
+        <v>140566.3548412044</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.648633588138058e-06</v>
+        <v>6.939994796318157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.044270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>96829.75256592766</v>
+        <v>127150.8992213158</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.51849569319707</v>
+        <v>101.0980394507498</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.75002863008631</v>
+        <v>138.326797707178</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.80265747664538</v>
+        <v>125.125082276922</v>
       </c>
       <c r="AD3" t="n">
-        <v>68518.49569319707</v>
+        <v>101098.0394507498</v>
       </c>
       <c r="AE3" t="n">
-        <v>93750.02863008631</v>
+        <v>138326.797707178</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.88826606499405e-06</v>
+        <v>7.297744683651292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>84802.65747664539</v>
+        <v>125125.082276922</v>
       </c>
     </row>
   </sheetData>
